--- a/data/trans_media/Q46-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q46-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,48; 79,61</t>
+          <t>76,32; 79,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,64; 81,68</t>
+          <t>77,65; 81,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,68; 84,26</t>
+          <t>80,69; 84,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,61; 65,21</t>
+          <t>62,66; 65,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,04; 68,05</t>
+          <t>64,83; 67,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,43; 69,25</t>
+          <t>66,3; 69,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,77; 72,15</t>
+          <t>69,76; 72,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,65; 74,64</t>
+          <t>71,8; 74,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,6; 76,13</t>
+          <t>73,75; 76,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,45; 77,64</t>
+          <t>75,49; 77,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,6; 79,17</t>
+          <t>76,5; 79,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,56; 78,95</t>
+          <t>76,72; 79,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,57; 82,8</t>
+          <t>79,66; 82,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,97; 67,08</t>
+          <t>64,95; 67,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 69,28</t>
+          <t>67,03; 69,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 69,48</t>
+          <t>67,01; 69,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,11; 69,12</t>
+          <t>67,02; 69,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,36; 72,05</t>
+          <t>70,37; 72,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,09; 73,92</t>
+          <t>72,02; 73,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,06; 73,91</t>
+          <t>72,06; 73,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,41; 75,5</t>
+          <t>73,51; 75,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,31; 77,5</t>
+          <t>75,31; 77,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,43; 82,06</t>
+          <t>79,32; 82,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,24; 81,86</t>
+          <t>79,27; 82,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,57; 83,79</t>
+          <t>80,63; 83,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,24; 66,71</t>
+          <t>64,24; 66,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,83; 69,67</t>
+          <t>66,68; 69,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,58; 69,57</t>
+          <t>66,5; 69,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,9; 70,39</t>
+          <t>67,91; 70,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,85; 71,73</t>
+          <t>69,96; 71,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,06; 75,4</t>
+          <t>73,2; 75,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,1; 75,31</t>
+          <t>73,01; 75,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,1; 76,35</t>
+          <t>74,16; 76,36</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,02; 80,3</t>
+          <t>78,13; 80,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,76; 81,8</t>
+          <t>79,69; 81,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,44; 81,93</t>
+          <t>78,67; 81,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,02; 82,62</t>
+          <t>79,14; 82,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,61; 66,9</t>
+          <t>64,63; 66,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,87; 68,85</t>
+          <t>66,85; 68,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,28; 69,05</t>
+          <t>66,3; 69,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,37; 67,89</t>
+          <t>65,21; 67,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,48; 73,34</t>
+          <t>71,53; 73,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,54; 75,19</t>
+          <t>73,45; 75,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,72; 74,98</t>
+          <t>72,64; 75,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,57; 74,27</t>
+          <t>71,42; 74,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,12; 79,57</t>
+          <t>76,15; 79,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,02; 82,68</t>
+          <t>78,83; 82,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,86; 80,56</t>
+          <t>77,01; 80,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,83; 82,85</t>
+          <t>79,83; 82,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,62; 69,9</t>
+          <t>65,54; 69,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,32; 67,79</t>
+          <t>64,26; 67,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,9; 71,83</t>
+          <t>68,83; 71,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,66; 416,72</t>
+          <t>74,02; 419,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,23; 74,02</t>
+          <t>71,18; 74,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,75; 74,76</t>
+          <t>71,74; 74,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,02; 75,52</t>
+          <t>73,0; 75,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,24; 324,31</t>
+          <t>76,98; 335,37</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,0; 79,65</t>
+          <t>76,97; 79,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,45; 85,18</t>
+          <t>81,33; 84,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,48; 81,7</t>
+          <t>78,47; 81,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,19; 82,25</t>
+          <t>79,17; 82,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,78; 66,32</t>
+          <t>63,76; 66,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,91; 71,06</t>
+          <t>68,08; 71,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,42; 68,65</t>
+          <t>65,7; 68,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,81; 68,2</t>
+          <t>65,86; 68,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>70,47; 72,66</t>
+          <t>70,48; 72,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,85; 77,57</t>
+          <t>74,94; 77,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>72,29; 74,84</t>
+          <t>72,25; 74,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72,79; 74,98</t>
+          <t>72,68; 74,9</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,57; 79,42</t>
+          <t>77,64; 79,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,0; 80,93</t>
+          <t>78,92; 80,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,34; 82,36</t>
+          <t>80,25; 82,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>78,74; 81,41</t>
+          <t>78,9; 81,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,03; 67,05</t>
+          <t>65,18; 67,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,73; 69,73</t>
+          <t>67,83; 69,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,15; 67,4</t>
+          <t>65,15; 67,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,87; 74,34</t>
+          <t>66,8; 74,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,41; 72,96</t>
+          <t>71,37; 72,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,5; 75,0</t>
+          <t>73,43; 74,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>72,62; 74,4</t>
+          <t>72,64; 74,4</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>73,01; 76,15</t>
+          <t>72,93; 76,04</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,83; 79,52</t>
+          <t>77,81; 79,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>77,85; 79,59</t>
+          <t>77,84; 79,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,45; 81,48</t>
+          <t>79,45; 81,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>78,24; 84,45</t>
+          <t>78,2; 83,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,08; 65,81</t>
+          <t>64,02; 65,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,46; 68,34</t>
+          <t>66,47; 68,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>67,4; 69,33</t>
+          <t>67,43; 69,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67,38; 69,18</t>
+          <t>67,41; 69,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>70,89; 72,3</t>
+          <t>70,85; 72,31</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>72,25; 73,65</t>
+          <t>72,24; 73,65</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73,52; 74,98</t>
+          <t>73,54; 75,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,01; 76,8</t>
+          <t>73,05; 77,49</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>77,55; 78,4</t>
+          <t>77,6; 78,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>79,43; 80,33</t>
+          <t>79,41; 80,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>79,44; 80,4</t>
+          <t>79,45; 80,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>80,17; 81,84</t>
+          <t>80,23; 82,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>65,13; 65,98</t>
+          <t>65,09; 65,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,59; 68,47</t>
+          <t>67,58; 68,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>67,21; 68,11</t>
+          <t>67,18; 68,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>68,43; 104,59</t>
+          <t>68,37; 104,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>71,35; 72,0</t>
+          <t>71,36; 71,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,19</t>
+          <t>73,5; 74,22</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>73,31; 74,06</t>
+          <t>73,34; 74,05</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>74,25; 90,34</t>
+          <t>74,24; 91,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q46-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q46-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,32; 79,43</t>
+          <t>76,42; 79,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,65; 81,56</t>
+          <t>77,72; 81,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,66; 65,36</t>
+          <t>62,64; 65,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,83; 67,84</t>
+          <t>64,87; 67,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,76; 72,16</t>
+          <t>69,83; 72,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,8; 74,59</t>
+          <t>71,79; 74,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,49; 77,7</t>
+          <t>75,43; 77,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,5; 79,3</t>
+          <t>76,6; 79,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,72; 79,04</t>
+          <t>76,56; 79,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,95; 67,06</t>
+          <t>64,9; 67,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,03; 69,3</t>
+          <t>66,95; 69,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,01; 69,49</t>
+          <t>66,91; 69,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,37; 72,0</t>
+          <t>70,37; 72,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,02; 73,94</t>
+          <t>72,06; 73,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,06; 73,84</t>
+          <t>72,05; 73,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,31; 77,45</t>
+          <t>75,36; 77,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,32; 82,11</t>
+          <t>79,31; 81,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,27; 82,07</t>
+          <t>79,17; 81,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,24; 66,73</t>
+          <t>64,31; 66,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,68; 69,54</t>
+          <t>66,61; 69,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,5; 69,52</t>
+          <t>66,4; 69,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,96; 71,82</t>
+          <t>69,79; 71,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,2; 75,4</t>
+          <t>73,12; 75,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,01; 75,31</t>
+          <t>73,0; 75,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,13; 80,37</t>
+          <t>78,15; 80,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,69; 81,74</t>
+          <t>79,74; 81,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,67; 81,93</t>
+          <t>78,64; 81,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,63; 66,94</t>
+          <t>64,69; 66,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,85; 68,83</t>
+          <t>66,98; 68,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,3; 69,05</t>
+          <t>66,25; 69,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,53; 73,33</t>
+          <t>71,4; 73,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,45; 75,18</t>
+          <t>73,58; 75,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,64; 75,01</t>
+          <t>72,66; 75,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,15; 79,57</t>
+          <t>76,13; 79,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,83; 82,6</t>
+          <t>78,73; 82,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,01; 80,26</t>
+          <t>76,78; 80,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,54; 69,44</t>
+          <t>65,45; 69,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,26; 67,81</t>
+          <t>64,22; 67,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,83; 71,84</t>
+          <t>68,94; 71,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,18; 74,13</t>
+          <t>71,26; 74,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,74; 74,63</t>
+          <t>71,7; 74,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,0; 75,47</t>
+          <t>73,08; 75,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,97; 79,55</t>
+          <t>77,1; 79,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,33; 84,91</t>
+          <t>81,4; 84,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,47; 81,72</t>
+          <t>78,47; 81,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,76; 66,38</t>
+          <t>63,86; 66,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,08; 71,16</t>
+          <t>68,01; 71,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,7; 68,64</t>
+          <t>65,71; 68,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>70,48; 72,76</t>
+          <t>70,52; 72,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,94; 77,54</t>
+          <t>74,89; 77,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>72,25; 74,68</t>
+          <t>72,25; 74,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,64; 79,4</t>
+          <t>77,67; 79,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>78,92; 80,79</t>
+          <t>79,01; 80,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,25; 82,4</t>
+          <t>80,15; 82,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,18; 67,08</t>
+          <t>65,16; 67,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,83; 69,78</t>
+          <t>67,81; 69,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,15; 67,22</t>
+          <t>65,18; 67,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,37; 72,96</t>
+          <t>71,44; 73,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,43; 74,94</t>
+          <t>73,41; 74,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>72,64; 74,4</t>
+          <t>72,71; 74,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,81; 79,59</t>
+          <t>77,77; 79,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>77,84; 79,6</t>
+          <t>77,84; 79,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,45; 81,52</t>
+          <t>79,58; 81,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,02; 65,8</t>
+          <t>64,17; 65,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,47; 68,45</t>
+          <t>66,47; 68,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>67,43; 69,29</t>
+          <t>67,44; 69,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>70,85; 72,31</t>
+          <t>70,91; 72,35</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>72,24; 73,65</t>
+          <t>72,24; 73,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73,54; 75,0</t>
+          <t>73,52; 75,03</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>77,6; 78,35</t>
+          <t>77,57; 78,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>79,41; 80,34</t>
+          <t>79,42; 80,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>79,45; 80,44</t>
+          <t>79,46; 80,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>65,09; 65,93</t>
+          <t>65,13; 65,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,58; 68,48</t>
+          <t>67,53; 68,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>67,18; 68,14</t>
+          <t>67,25; 68,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>71,36; 71,99</t>
+          <t>71,36; 72,01</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,22</t>
+          <t>73,51; 74,23</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>73,34; 74,05</t>
+          <t>73,32; 74,03</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
